--- a/src/main/java/com/qa/ecommerce/testdata/ecommercetestdata.xlsx
+++ b/src/main/java/com/qa/ecommerce/testdata/ecommercetestdata.xlsx
@@ -3,16 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{70E56B50-C275-4DE8-8909-FF2D36D1ED2C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sujan\Desktop\siri\TestCases\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9529FFA5-FD5E-47AD-A9AD-0258A3BC3045}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="20760" windowHeight="11820" activeTab="1" xr2:uid="{6B06976A-AAFB-49E3-B72F-2DE24A19673E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6B06976A-AAFB-49E3-B72F-2DE24A19673E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="login" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:M7"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -105,15 +109,6 @@
     <t>7032789999</t>
   </si>
   <si>
-    <t>tom13@gmail.com</t>
-  </si>
-  <si>
-    <t>tom14@gmail.com</t>
-  </si>
-  <si>
-    <t>tom15@gmail.com</t>
-  </si>
-  <si>
     <t>lake road1</t>
   </si>
   <si>
@@ -126,7 +121,16 @@
     <t>lake road4</t>
   </si>
   <si>
-    <t>tom17@gmail.com</t>
+    <t>tom18@gmail.com</t>
+  </si>
+  <si>
+    <t>tom19@gmail.com</t>
+  </si>
+  <si>
+    <t>tom20@gmail.com</t>
+  </si>
+  <si>
+    <t>tom21@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -510,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1CBF98-3292-41B8-A98C-EF954448D0D0}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +579,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>15</v>
@@ -605,7 +609,7 @@
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -616,7 +620,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -646,7 +650,7 @@
         <v>26</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -657,7 +661,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -687,7 +691,7 @@
         <v>26</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -698,7 +702,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -728,7 +732,7 @@
         <v>26</v>
       </c>
       <c r="M5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -748,7 +752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCEDE2E7-A7DD-40E5-A02C-67D24FB9DCE4}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
